--- a/data/results/error_summary.xlsx
+++ b/data/results/error_summary.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="error_summary" sheetId="1" r:id="rId1"/>
+    <sheet name="joey_checked_revised_eng_nouns_" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="29">
   <si>
     <t>Training Data Size</t>
   </si>
@@ -97,6 +98,15 @@
   </si>
   <si>
     <t>left5words_owlqn2_pref6_inf2.txt</t>
+  </si>
+  <si>
+    <t>filipino-tagged-revised-eng-nouns</t>
+  </si>
+  <si>
+    <t>left3words_owlqn2_distsim_pref6_inf2.txt</t>
+  </si>
+  <si>
+    <t>left5words_owlqn2_distsim_pref6_inf2.txt</t>
   </si>
 </sst>
 </file>
@@ -536,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -579,11 +589,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -623,6 +635,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -903,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J73"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,19 +2444,22 @@
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F50">
-        <v>77450</v>
+        <v>77586</v>
       </c>
       <c r="G50">
-        <v>0.94902585467467204</v>
+        <v>0.95069231711799995</v>
       </c>
       <c r="H50">
-        <v>0.63442796686623104</v>
+        <v>0.63464188681116296</v>
       </c>
       <c r="I50">
-        <v>0.61870995712723098</v>
+        <v>0.61891161451176202</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2460,19 +2476,22 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F51">
-        <v>77444</v>
+        <v>77580</v>
       </c>
       <c r="G51">
-        <v>0.94895233427276005</v>
+        <v>0.95061879671608795</v>
       </c>
       <c r="H51">
-        <v>0.63456255491485103</v>
+        <v>0.63478279528734805</v>
       </c>
       <c r="I51">
-        <v>0.61800776882883501</v>
+        <v>0.61820258778262105</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,19 +2508,22 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>77444</v>
+        <v>77580</v>
       </c>
       <c r="G52">
-        <v>0.94895233427276005</v>
+        <v>0.95061879671608795</v>
       </c>
       <c r="H52">
-        <v>0.63456255491485103</v>
+        <v>0.63478279528734805</v>
       </c>
       <c r="I52">
-        <v>0.61800776882883501</v>
+        <v>0.61820258778262105</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,19 +2540,22 @@
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F53">
-        <v>77435</v>
+        <v>77573</v>
       </c>
       <c r="G53">
-        <v>0.94884205366989305</v>
+        <v>0.95053302291385799</v>
       </c>
       <c r="H53">
-        <v>0.63306202456680805</v>
+        <v>0.63327853071363605</v>
       </c>
       <c r="I53">
-        <v>0.61870092440486901</v>
+        <v>0.61890570428424796</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2544,22 +2569,25 @@
         <v>81610</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F54">
-        <v>77425</v>
+        <v>77564</v>
       </c>
       <c r="G54">
-        <v>0.94871951966670698</v>
+        <v>0.950422742310991</v>
       </c>
       <c r="H54">
-        <v>0.63881955647003597</v>
+        <v>0.64024227677771794</v>
       </c>
       <c r="I54">
-        <v>0.61682806317650596</v>
+        <v>0.61653514773259499</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2573,22 +2601,25 @@
         <v>81610</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F55">
-        <v>77424</v>
+        <v>77564</v>
       </c>
       <c r="G55">
-        <v>0.94870726626638802</v>
+        <v>0.950422742310991</v>
       </c>
       <c r="H55">
-        <v>0.64002410176399505</v>
+        <v>0.64024227677771794</v>
       </c>
       <c r="I55">
-        <v>0.61632671905595204</v>
+        <v>0.61653514773259499</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2602,22 +2633,25 @@
         <v>81610</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F56">
-        <v>77424</v>
+        <v>77561</v>
       </c>
       <c r="G56">
-        <v>0.94870726626638802</v>
+        <v>0.950385982110035</v>
       </c>
       <c r="H56">
-        <v>0.64002410176399505</v>
+        <v>0.63902998148647305</v>
       </c>
       <c r="I56">
-        <v>0.61632671905595204</v>
+        <v>0.61703236739922196</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2634,19 +2668,22 @@
         <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F57">
-        <v>77420</v>
+        <v>77560</v>
       </c>
       <c r="G57">
-        <v>0.94865825266511405</v>
+        <v>0.95037372870971604</v>
       </c>
       <c r="H57">
-        <v>0.63420215253900603</v>
+        <v>0.63441577596762599</v>
       </c>
       <c r="I57">
-        <v>0.61622312327944095</v>
+        <v>0.61643668346732505</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2663,19 +2700,22 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F58">
-        <v>77414</v>
+        <v>77550</v>
       </c>
       <c r="G58">
-        <v>0.94858473226320295</v>
+        <v>0.95025119470653097</v>
       </c>
       <c r="H58">
-        <v>0.63830877108203399</v>
+        <v>0.63852301049986204</v>
       </c>
       <c r="I58">
-        <v>0.61896015274675698</v>
+        <v>0.61916260939030399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2689,22 +2729,25 @@
         <v>81610</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F59">
-        <v>77394</v>
+        <v>77545</v>
       </c>
       <c r="G59">
-        <v>0.94833966425683103</v>
+        <v>0.95018992770493804</v>
       </c>
       <c r="H59">
-        <v>0.63870059678070601</v>
+        <v>0.63535999051854897</v>
       </c>
       <c r="I59">
-        <v>0.60993586980074899</v>
+        <v>0.61484134236159405</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,25 +2761,22 @@
         <v>81610</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F60">
-        <v>77389</v>
+        <v>77535</v>
       </c>
       <c r="G60">
-        <v>0.94827839725523799</v>
+        <v>0.95006739370175197</v>
       </c>
       <c r="H60">
-        <v>0.63422714996905805</v>
+        <v>0.63535306149691295</v>
       </c>
       <c r="I60">
-        <v>0.618777651085197</v>
-      </c>
-      <c r="J60" t="s">
-        <v>12</v>
+        <v>0.61482011995072805</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,22 +2790,22 @@
         <v>81610</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F61">
-        <v>77383</v>
+        <v>77529</v>
       </c>
       <c r="G61">
-        <v>0.948204876853326</v>
+        <v>0.94999387329983997</v>
       </c>
       <c r="H61">
-        <v>0.63437003967219496</v>
+        <v>0.63891119273438202</v>
       </c>
       <c r="I61">
-        <v>0.61806876414156697</v>
+        <v>0.61013868473795196</v>
       </c>
       <c r="J61" t="s">
         <v>12</v>
@@ -2782,25 +2822,22 @@
         <v>81610</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
       </c>
       <c r="F62">
-        <v>77383</v>
+        <v>77450</v>
       </c>
       <c r="G62">
-        <v>0.948204876853326</v>
+        <v>0.94902585467467204</v>
       </c>
       <c r="H62">
-        <v>0.63437003967219496</v>
+        <v>0.63442796686623104</v>
       </c>
       <c r="I62">
-        <v>0.61806876414156697</v>
-      </c>
-      <c r="J62" t="s">
-        <v>12</v>
+        <v>0.61870995712723098</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2814,25 +2851,22 @@
         <v>81610</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
         <v>23</v>
       </c>
       <c r="F63">
-        <v>77376</v>
+        <v>77444</v>
       </c>
       <c r="G63">
-        <v>0.94811910305109603</v>
+        <v>0.94895233427276005</v>
       </c>
       <c r="H63">
-        <v>0.632863129229156</v>
+        <v>0.63456255491485103</v>
       </c>
       <c r="I63">
-        <v>0.61877147777965702</v>
-      </c>
-      <c r="J63" t="s">
-        <v>12</v>
+        <v>0.61800776882883501</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2846,25 +2880,22 @@
         <v>81610</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64">
-        <v>77367</v>
+        <v>77444</v>
       </c>
       <c r="G64">
-        <v>0.94800882244822904</v>
+        <v>0.94895233427276005</v>
       </c>
       <c r="H64">
-        <v>0.63982846686980699</v>
+        <v>0.63456255491485103</v>
       </c>
       <c r="I64">
-        <v>0.616401806508872</v>
-      </c>
-      <c r="J64" t="s">
-        <v>12</v>
+        <v>0.61800776882883501</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,25 +2909,22 @@
         <v>81610</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
       </c>
       <c r="F65">
-        <v>77367</v>
+        <v>77435</v>
       </c>
       <c r="G65">
-        <v>0.94800882244822904</v>
+        <v>0.94884205366989305</v>
       </c>
       <c r="H65">
-        <v>0.63982846686980699</v>
+        <v>0.63306202456680805</v>
       </c>
       <c r="I65">
-        <v>0.616401806508872</v>
-      </c>
-      <c r="J65" t="s">
-        <v>12</v>
+        <v>0.61870092440486901</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2916,19 +2944,16 @@
         <v>23</v>
       </c>
       <c r="F66">
-        <v>77364</v>
+        <v>77425</v>
       </c>
       <c r="G66">
-        <v>0.94797206224727304</v>
+        <v>0.94871951966670698</v>
       </c>
       <c r="H66">
-        <v>0.63861511188609499</v>
+        <v>0.63881955647003597</v>
       </c>
       <c r="I66">
-        <v>0.61689910645709001</v>
-      </c>
-      <c r="J66" t="s">
-        <v>12</v>
+        <v>0.61682806317650596</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2942,25 +2967,22 @@
         <v>81610</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
         <v>23</v>
       </c>
       <c r="F67">
-        <v>77363</v>
+        <v>77424</v>
       </c>
       <c r="G67">
-        <v>0.94795980884695497</v>
+        <v>0.94870726626638802</v>
       </c>
       <c r="H67">
-        <v>0.63400103912552097</v>
+        <v>0.64002410176399505</v>
       </c>
       <c r="I67">
-        <v>0.61630323471628701</v>
-      </c>
-      <c r="J67" t="s">
-        <v>12</v>
+        <v>0.61632671905595204</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2974,25 +2996,22 @@
         <v>81610</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
       </c>
       <c r="F68">
-        <v>77353</v>
+        <v>77424</v>
       </c>
       <c r="G68">
-        <v>0.94783727484376901</v>
+        <v>0.94870726626638802</v>
       </c>
       <c r="H68">
-        <v>0.63810800805619305</v>
+        <v>0.64002410176399505</v>
       </c>
       <c r="I68">
-        <v>0.61902784670472399</v>
-      </c>
-      <c r="J68" t="s">
-        <v>12</v>
+        <v>0.61632671905595204</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3006,25 +3025,22 @@
         <v>81610</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
         <v>23</v>
       </c>
       <c r="F69">
-        <v>77348</v>
+        <v>77420</v>
       </c>
       <c r="G69">
-        <v>0.94777600784217597</v>
+        <v>0.94865825266511405</v>
       </c>
       <c r="H69">
-        <v>0.63494906704626697</v>
+        <v>0.63420215253900603</v>
       </c>
       <c r="I69">
-        <v>0.61470837675568202</v>
-      </c>
-      <c r="J69" t="s">
-        <v>12</v>
+        <v>0.61622312327944095</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,22 +3054,22 @@
         <v>81610</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>23</v>
       </c>
       <c r="F70">
-        <v>77342</v>
+        <v>77414</v>
       </c>
       <c r="G70">
-        <v>0.94770248744026397</v>
+        <v>0.94858473226320295</v>
       </c>
       <c r="H70">
-        <v>0.63494619501434302</v>
+        <v>0.63830877108203399</v>
       </c>
       <c r="I70">
-        <v>0.61469142519867104</v>
+        <v>0.61896015274675698</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3067,25 +3083,22 @@
         <v>81610</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>77332</v>
+        <v>77403</v>
       </c>
       <c r="G71">
-        <v>0.94757995343707802</v>
+        <v>0.94844994485969802</v>
       </c>
       <c r="H71">
-        <v>0.63849685365779096</v>
+        <v>0.63466678678346</v>
       </c>
       <c r="I71">
-        <v>0.61000464604226701</v>
-      </c>
-      <c r="J71" t="s">
-        <v>12</v>
+        <v>0.61782695111029495</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,22 +3112,22 @@
         <v>81610</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F72">
-        <v>77164</v>
+        <v>77403</v>
       </c>
       <c r="G72">
-        <v>0.94552138218355597</v>
+        <v>0.94844994485969802</v>
       </c>
       <c r="H72">
-        <v>0.63461961625900198</v>
+        <v>0.63466678678346</v>
       </c>
       <c r="I72">
-        <v>0.61149062858063197</v>
+        <v>0.61782695111029495</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3128,30 +3141,1677 @@
         <v>81610</v>
       </c>
       <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>77401</v>
+      </c>
+      <c r="G73">
+        <v>0.94842543805906099</v>
+      </c>
+      <c r="H73">
+        <v>0.63452245751855396</v>
+      </c>
+      <c r="I73">
+        <v>0.61851899991074299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>12134</v>
+      </c>
+      <c r="B74">
+        <v>3033</v>
+      </c>
+      <c r="C74">
+        <v>81610</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74">
+        <v>77394</v>
+      </c>
+      <c r="G74">
+        <v>0.94833966425683103</v>
+      </c>
+      <c r="H74">
+        <v>0.63870059678070601</v>
+      </c>
+      <c r="I74">
+        <v>0.60993586980074899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12134</v>
+      </c>
+      <c r="B75">
+        <v>3033</v>
+      </c>
+      <c r="C75">
+        <v>81610</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75">
+        <v>77389</v>
+      </c>
+      <c r="G75">
+        <v>0.94827839725523799</v>
+      </c>
+      <c r="H75">
+        <v>0.63422714996905805</v>
+      </c>
+      <c r="I75">
+        <v>0.618777651085197</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>12134</v>
+      </c>
+      <c r="B76">
+        <v>3033</v>
+      </c>
+      <c r="C76">
+        <v>81610</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>77388</v>
+      </c>
+      <c r="G76">
+        <v>0.94826614385491903</v>
+      </c>
+      <c r="H76">
+        <v>0.63315970357100004</v>
+      </c>
+      <c r="I76">
+        <v>0.61851308968323004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>12134</v>
+      </c>
+      <c r="B77">
+        <v>3033</v>
+      </c>
+      <c r="C77">
+        <v>81610</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77">
+        <v>77383</v>
+      </c>
+      <c r="G77">
+        <v>0.948204876853326</v>
+      </c>
+      <c r="H77">
+        <v>0.63437003967219496</v>
+      </c>
+      <c r="I77">
+        <v>0.61806876414156697</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>12134</v>
+      </c>
+      <c r="B78">
+        <v>3033</v>
+      </c>
+      <c r="C78">
+        <v>81610</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78">
+        <v>77383</v>
+      </c>
+      <c r="G78">
+        <v>0.948204876853326</v>
+      </c>
+      <c r="H78">
+        <v>0.63437003967219496</v>
+      </c>
+      <c r="I78">
+        <v>0.61806876414156697</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>12134</v>
+      </c>
+      <c r="B79">
+        <v>3033</v>
+      </c>
+      <c r="C79">
+        <v>81610</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79">
+        <v>77377</v>
+      </c>
+      <c r="G79">
+        <v>0.948131356451415</v>
+      </c>
+      <c r="H79">
+        <v>0.64012109618943402</v>
+      </c>
+      <c r="I79">
+        <v>0.61613828864940301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12134</v>
+      </c>
+      <c r="B80">
+        <v>3033</v>
+      </c>
+      <c r="C80">
+        <v>81610</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80">
+        <v>77377</v>
+      </c>
+      <c r="G80">
+        <v>0.948131356451415</v>
+      </c>
+      <c r="H80">
+        <v>0.64012109618943402</v>
+      </c>
+      <c r="I80">
+        <v>0.61613828864940301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>12134</v>
+      </c>
+      <c r="B81">
+        <v>3033</v>
+      </c>
+      <c r="C81">
+        <v>81610</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81">
+        <v>77376</v>
+      </c>
+      <c r="G81">
+        <v>0.94811910305109603</v>
+      </c>
+      <c r="H81">
+        <v>0.632863129229156</v>
+      </c>
+      <c r="I81">
+        <v>0.61877147777965702</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>12134</v>
+      </c>
+      <c r="B82">
+        <v>3033</v>
+      </c>
+      <c r="C82">
+        <v>81610</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>77372</v>
+      </c>
+      <c r="G82">
+        <v>0.94807008944982196</v>
+      </c>
+      <c r="H82">
+        <v>0.63890873843691298</v>
+      </c>
+      <c r="I82">
+        <v>0.61663126383385702</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>12134</v>
+      </c>
+      <c r="B83">
+        <v>3033</v>
+      </c>
+      <c r="C83">
+        <v>81610</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83">
+        <v>77367</v>
+      </c>
+      <c r="G83">
+        <v>0.94800882244822904</v>
+      </c>
+      <c r="H83">
+        <v>0.63429151922440496</v>
+      </c>
+      <c r="I83">
+        <v>0.61602709093761399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>12134</v>
+      </c>
+      <c r="B84">
+        <v>3033</v>
+      </c>
+      <c r="C84">
+        <v>81610</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84">
+        <v>77367</v>
+      </c>
+      <c r="G84">
+        <v>0.94800882244822904</v>
+      </c>
+      <c r="H84">
+        <v>0.63982846686980699</v>
+      </c>
+      <c r="I84">
+        <v>0.616401806508872</v>
+      </c>
+      <c r="J84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12134</v>
+      </c>
+      <c r="B85">
+        <v>3033</v>
+      </c>
+      <c r="C85">
+        <v>81610</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85">
+        <v>77367</v>
+      </c>
+      <c r="G85">
+        <v>0.94800882244822904</v>
+      </c>
+      <c r="H85">
+        <v>0.63982846686980699</v>
+      </c>
+      <c r="I85">
+        <v>0.616401806508872</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>12134</v>
+      </c>
+      <c r="B86">
+        <v>3033</v>
+      </c>
+      <c r="C86">
+        <v>81610</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86">
+        <v>77365</v>
+      </c>
+      <c r="G86">
+        <v>0.947984315647592</v>
+      </c>
+      <c r="H86">
+        <v>0.63840353159918195</v>
+      </c>
+      <c r="I86">
+        <v>0.61876999478928596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>12134</v>
+      </c>
+      <c r="B87">
+        <v>3033</v>
+      </c>
+      <c r="C87">
+        <v>81610</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <v>77364</v>
+      </c>
+      <c r="G87">
+        <v>0.94797206224727304</v>
+      </c>
+      <c r="H87">
+        <v>0.63861511188609499</v>
+      </c>
+      <c r="I87">
+        <v>0.61689910645709001</v>
+      </c>
+      <c r="J87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12134</v>
+      </c>
+      <c r="B88">
+        <v>3033</v>
+      </c>
+      <c r="C88">
+        <v>81610</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <v>77363</v>
+      </c>
+      <c r="G88">
+        <v>0.94795980884695497</v>
+      </c>
+      <c r="H88">
+        <v>0.63400103912552097</v>
+      </c>
+      <c r="I88">
+        <v>0.61630323471628701</v>
+      </c>
+      <c r="J88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12134</v>
+      </c>
+      <c r="B89">
+        <v>3033</v>
+      </c>
+      <c r="C89">
+        <v>81610</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89">
+        <v>77353</v>
+      </c>
+      <c r="G89">
+        <v>0.94783727484376901</v>
+      </c>
+      <c r="H89">
+        <v>0.63810800805619305</v>
+      </c>
+      <c r="I89">
+        <v>0.61902784670472399</v>
+      </c>
+      <c r="J89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12134</v>
+      </c>
+      <c r="B90">
+        <v>3033</v>
+      </c>
+      <c r="C90">
+        <v>81610</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90">
+        <v>77348</v>
+      </c>
+      <c r="G90">
+        <v>0.94777600784217597</v>
+      </c>
+      <c r="H90">
+        <v>0.63494906704626697</v>
+      </c>
+      <c r="I90">
+        <v>0.61470837675568202</v>
+      </c>
+      <c r="J90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>12134</v>
+      </c>
+      <c r="B91">
+        <v>3033</v>
+      </c>
+      <c r="C91">
+        <v>81610</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91">
+        <v>77342</v>
+      </c>
+      <c r="G91">
+        <v>0.94770248744026397</v>
+      </c>
+      <c r="H91">
+        <v>0.63494619501434302</v>
+      </c>
+      <c r="I91">
+        <v>0.61469142519867104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>12134</v>
+      </c>
+      <c r="B92">
+        <v>3033</v>
+      </c>
+      <c r="C92">
+        <v>81610</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92">
+        <v>77341</v>
+      </c>
+      <c r="G92">
+        <v>0.94769023403994601</v>
+      </c>
+      <c r="H92">
+        <v>0.63878955452106601</v>
+      </c>
+      <c r="I92">
+        <v>0.60973970341367401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12134</v>
+      </c>
+      <c r="B93">
+        <v>3033</v>
+      </c>
+      <c r="C93">
+        <v>81610</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93">
+        <v>77332</v>
+      </c>
+      <c r="G93">
+        <v>0.94757995343707802</v>
+      </c>
+      <c r="H93">
+        <v>0.63849685365779096</v>
+      </c>
+      <c r="I93">
+        <v>0.61000464604226701</v>
+      </c>
+      <c r="J93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12134</v>
+      </c>
+      <c r="B94">
+        <v>3033</v>
+      </c>
+      <c r="C94">
+        <v>81610</v>
+      </c>
+      <c r="D94" t="s">
         <v>10</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94">
+        <v>77301</v>
+      </c>
+      <c r="G94">
+        <v>0.94720009802720195</v>
+      </c>
+      <c r="H94">
+        <v>0.63483178859391798</v>
+      </c>
+      <c r="I94">
+        <v>0.61170238045782599</v>
+      </c>
+      <c r="J94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>12134</v>
+      </c>
+      <c r="B95">
+        <v>3033</v>
+      </c>
+      <c r="C95">
+        <v>81610</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
         <v>23</v>
       </c>
-      <c r="F73">
+      <c r="F95">
+        <v>77164</v>
+      </c>
+      <c r="G95">
+        <v>0.94552138218355597</v>
+      </c>
+      <c r="H95">
+        <v>0.63461961625900198</v>
+      </c>
+      <c r="I95">
+        <v>0.61149062858063197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12134</v>
+      </c>
+      <c r="B96">
+        <v>3033</v>
+      </c>
+      <c r="C96">
+        <v>81610</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96">
+        <v>77109</v>
+      </c>
+      <c r="G96">
+        <v>0.94484744516603303</v>
+      </c>
+      <c r="H96">
+        <v>0.63470702766963505</v>
+      </c>
+      <c r="I96">
+        <v>0.61129491016920101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12134</v>
+      </c>
+      <c r="B97">
+        <v>3033</v>
+      </c>
+      <c r="C97">
+        <v>81610</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97">
         <v>77104</v>
       </c>
-      <c r="G73">
+      <c r="G97">
         <v>0.94478617816443999</v>
       </c>
-      <c r="H73">
+      <c r="H97">
         <v>0.63441451472669996</v>
       </c>
-      <c r="I73">
+      <c r="I97">
         <v>0.61156561356159</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J97" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J73">
-    <sortCondition descending="1" ref="G2:G73"/>
+  <sortState ref="A2:J97">
+    <sortCondition descending="1" ref="G2:G97"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="A1:J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12134</v>
+      </c>
+      <c r="B2">
+        <v>3033</v>
+      </c>
+      <c r="C2">
+        <v>81610</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>78073</v>
+      </c>
+      <c r="G2">
+        <v>0.95665972307315195</v>
+      </c>
+      <c r="H2">
+        <v>0.743630896581845</v>
+      </c>
+      <c r="I2">
+        <v>0.69471489404667697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12134</v>
+      </c>
+      <c r="B3">
+        <v>3033</v>
+      </c>
+      <c r="C3">
+        <v>81610</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>78181</v>
+      </c>
+      <c r="G3">
+        <v>0.95798309030756001</v>
+      </c>
+      <c r="H3">
+        <v>0.74890189761599402</v>
+      </c>
+      <c r="I3">
+        <v>0.69630479305697501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12134</v>
+      </c>
+      <c r="B4">
+        <v>3033</v>
+      </c>
+      <c r="C4">
+        <v>81610</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>78190</v>
+      </c>
+      <c r="G4">
+        <v>0.95809337091042701</v>
+      </c>
+      <c r="H4">
+        <v>0.75063332324285903</v>
+      </c>
+      <c r="I4">
+        <v>0.70278601333300295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12134</v>
+      </c>
+      <c r="B5">
+        <v>3033</v>
+      </c>
+      <c r="C5">
+        <v>81610</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>78210</v>
+      </c>
+      <c r="G5">
+        <v>0.95833843891679904</v>
+      </c>
+      <c r="H5">
+        <v>0.74672712491306004</v>
+      </c>
+      <c r="I5">
+        <v>0.703811035139842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12134</v>
+      </c>
+      <c r="B6">
+        <v>3033</v>
+      </c>
+      <c r="C6">
+        <v>81610</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>78213</v>
+      </c>
+      <c r="G6">
+        <v>0.95837519911775504</v>
+      </c>
+      <c r="H6">
+        <v>0.74425078298713498</v>
+      </c>
+      <c r="I6">
+        <v>0.702831004069155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12134</v>
+      </c>
+      <c r="B7">
+        <v>3033</v>
+      </c>
+      <c r="C7">
+        <v>81610</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>78213</v>
+      </c>
+      <c r="G7">
+        <v>0.95837519911775504</v>
+      </c>
+      <c r="H7">
+        <v>0.74425078298713498</v>
+      </c>
+      <c r="I7">
+        <v>0.702831004069155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12134</v>
+      </c>
+      <c r="B8">
+        <v>3033</v>
+      </c>
+      <c r="C8">
+        <v>81610</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>78215</v>
+      </c>
+      <c r="G8">
+        <v>0.95839970591839196</v>
+      </c>
+      <c r="H8">
+        <v>0.753879903507222</v>
+      </c>
+      <c r="I8">
+        <v>0.70203623177096497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12134</v>
+      </c>
+      <c r="B9">
+        <v>3033</v>
+      </c>
+      <c r="C9">
+        <v>81610</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>78216</v>
+      </c>
+      <c r="G9">
+        <v>0.95841195931871004</v>
+      </c>
+      <c r="H9">
+        <v>0.74179694726337497</v>
+      </c>
+      <c r="I9">
+        <v>0.70222234731247202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12134</v>
+      </c>
+      <c r="B10">
+        <v>3033</v>
+      </c>
+      <c r="C10">
+        <v>81610</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>78218</v>
+      </c>
+      <c r="G10">
+        <v>0.95843646611934796</v>
+      </c>
+      <c r="H10">
+        <v>0.75157039146682603</v>
+      </c>
+      <c r="I10">
+        <v>0.70175539040706103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12134</v>
+      </c>
+      <c r="B11">
+        <v>3033</v>
+      </c>
+      <c r="C11">
+        <v>81610</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>78218</v>
+      </c>
+      <c r="G11">
+        <v>0.95843646611934796</v>
+      </c>
+      <c r="H11">
+        <v>0.75157039146682603</v>
+      </c>
+      <c r="I11">
+        <v>0.70175539040706103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12134</v>
+      </c>
+      <c r="B12">
+        <v>3033</v>
+      </c>
+      <c r="C12">
+        <v>81610</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>78219</v>
+      </c>
+      <c r="G12">
+        <v>0.95844871951966604</v>
+      </c>
+      <c r="H12">
+        <v>0.74384633342134998</v>
+      </c>
+      <c r="I12">
+        <v>0.704127034848815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12134</v>
+      </c>
+      <c r="B13">
+        <v>3033</v>
+      </c>
+      <c r="C13">
+        <v>81610</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>78231</v>
+      </c>
+      <c r="G13">
+        <v>0.95859576032348903</v>
+      </c>
+      <c r="H13">
+        <v>0.75498257026192495</v>
+      </c>
+      <c r="I13">
+        <v>0.70902612615352301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12134</v>
+      </c>
+      <c r="B14">
+        <v>3033</v>
+      </c>
+      <c r="C14">
+        <v>81610</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>78243</v>
+      </c>
+      <c r="G14">
+        <v>0.95874280112731203</v>
+      </c>
+      <c r="H14">
+        <v>0.75881030731085397</v>
+      </c>
+      <c r="I14">
+        <v>0.70516746576617095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12134</v>
+      </c>
+      <c r="B15">
+        <v>3033</v>
+      </c>
+      <c r="C15">
+        <v>81610</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>78267</v>
+      </c>
+      <c r="G15">
+        <v>0.95903688273495802</v>
+      </c>
+      <c r="H15">
+        <v>0.74375957977748997</v>
+      </c>
+      <c r="I15">
+        <v>0.69514647702184096</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12134</v>
+      </c>
+      <c r="B16">
+        <v>3033</v>
+      </c>
+      <c r="C16">
+        <v>81610</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>78353</v>
+      </c>
+      <c r="G16">
+        <v>0.96009067516235702</v>
+      </c>
+      <c r="H16">
+        <v>0.74797271208569804</v>
+      </c>
+      <c r="I16">
+        <v>0.69937126089275803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12134</v>
+      </c>
+      <c r="B17">
+        <v>3033</v>
+      </c>
+      <c r="C17">
+        <v>81610</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>78363</v>
+      </c>
+      <c r="G17">
+        <v>0.96021320916554298</v>
+      </c>
+      <c r="H17">
+        <v>0.74797968935900905</v>
+      </c>
+      <c r="I17">
+        <v>0.69939350743786999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12134</v>
+      </c>
+      <c r="B18">
+        <v>3033</v>
+      </c>
+      <c r="C18">
+        <v>81610</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>78371</v>
+      </c>
+      <c r="G18">
+        <v>0.96031123636809201</v>
+      </c>
+      <c r="H18">
+        <v>0.74902780505876998</v>
+      </c>
+      <c r="I18">
+        <v>0.69672747741409502</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12134</v>
+      </c>
+      <c r="B19">
+        <v>3033</v>
+      </c>
+      <c r="C19">
+        <v>81610</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>78377</v>
+      </c>
+      <c r="G19">
+        <v>0.96038475677000301</v>
+      </c>
+      <c r="H19">
+        <v>0.75075675978386802</v>
+      </c>
+      <c r="I19">
+        <v>0.70320202372658902</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12134</v>
+      </c>
+      <c r="B20">
+        <v>3033</v>
+      </c>
+      <c r="C20">
+        <v>81610</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>78392</v>
+      </c>
+      <c r="G20">
+        <v>0.96056855777478201</v>
+      </c>
+      <c r="H20">
+        <v>0.74437071898890605</v>
+      </c>
+      <c r="I20">
+        <v>0.70322921722665199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12134</v>
+      </c>
+      <c r="B21">
+        <v>3033</v>
+      </c>
+      <c r="C21">
+        <v>81610</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>78392</v>
+      </c>
+      <c r="G21">
+        <v>0.96056855777478201</v>
+      </c>
+      <c r="H21">
+        <v>0.74437071898890605</v>
+      </c>
+      <c r="I21">
+        <v>0.70322921722665199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12134</v>
+      </c>
+      <c r="B22">
+        <v>3033</v>
+      </c>
+      <c r="C22">
+        <v>81610</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>78397</v>
+      </c>
+      <c r="G22">
+        <v>0.96062982477637504</v>
+      </c>
+      <c r="H22">
+        <v>0.74685092782470097</v>
+      </c>
+      <c r="I22">
+        <v>0.70422704553342796</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12134</v>
+      </c>
+      <c r="B23">
+        <v>3033</v>
+      </c>
+      <c r="C23">
+        <v>81610</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>78406</v>
+      </c>
+      <c r="G23">
+        <v>0.96074010537924204</v>
+      </c>
+      <c r="H23">
+        <v>0.74396916728047702</v>
+      </c>
+      <c r="I23">
+        <v>0.70454304524240097</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12134</v>
+      </c>
+      <c r="B24">
+        <v>3033</v>
+      </c>
+      <c r="C24">
+        <v>81610</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>78407</v>
+      </c>
+      <c r="G24">
+        <v>0.960752358779561</v>
+      </c>
+      <c r="H24">
+        <v>0.74192250033046003</v>
+      </c>
+      <c r="I24">
+        <v>0.70264725632410197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12134</v>
+      </c>
+      <c r="B25">
+        <v>3033</v>
+      </c>
+      <c r="C25">
+        <v>81610</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>78407</v>
+      </c>
+      <c r="G25">
+        <v>0.960752358779561</v>
+      </c>
+      <c r="H25">
+        <v>0.75169571652876199</v>
+      </c>
+      <c r="I25">
+        <v>0.70217585010966899</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12134</v>
+      </c>
+      <c r="B26">
+        <v>3033</v>
+      </c>
+      <c r="C26">
+        <v>81610</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>78407</v>
+      </c>
+      <c r="G26">
+        <v>0.960752358779561</v>
+      </c>
+      <c r="H26">
+        <v>0.75169571652876199</v>
+      </c>
+      <c r="I26">
+        <v>0.70217585010966899</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12134</v>
+      </c>
+      <c r="B27">
+        <v>3033</v>
+      </c>
+      <c r="C27">
+        <v>81610</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>78410</v>
+      </c>
+      <c r="G27">
+        <v>0.960789118980517</v>
+      </c>
+      <c r="H27">
+        <v>0.75400862462797003</v>
+      </c>
+      <c r="I27">
+        <v>0.70247003940064001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12134</v>
+      </c>
+      <c r="B28">
+        <v>3033</v>
+      </c>
+      <c r="C28">
+        <v>81610</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>78415</v>
+      </c>
+      <c r="G28">
+        <v>0.96085038598211003</v>
+      </c>
+      <c r="H28">
+        <v>0.75510471537665302</v>
+      </c>
+      <c r="I28">
+        <v>0.70943546258357604</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12134</v>
+      </c>
+      <c r="B29">
+        <v>3033</v>
+      </c>
+      <c r="C29">
+        <v>81610</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>78434</v>
+      </c>
+      <c r="G29">
+        <v>0.96108320058816299</v>
+      </c>
+      <c r="H29">
+        <v>0.75893613046888597</v>
+      </c>
+      <c r="I29">
+        <v>0.70559237477780201</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J29">
+    <sortCondition ref="G2:G29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/results/error_summary.xlsx
+++ b/data/results/error_summary.xlsx
@@ -3907,7 +3907,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:J29"/>
+      <selection activeCell="G9" sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4082,22 +4082,22 @@
         <v>81610</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>78213</v>
+        <v>78215</v>
       </c>
       <c r="G6">
-        <v>0.95837519911775504</v>
+        <v>0.95839970591839196</v>
       </c>
       <c r="H6">
-        <v>0.74425078298713498</v>
+        <v>0.753879903507222</v>
       </c>
       <c r="I6">
-        <v>0.702831004069155</v>
+        <v>0.70203623177096497</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4111,22 +4111,22 @@
         <v>81610</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7">
-        <v>78213</v>
+        <v>78216</v>
       </c>
       <c r="G7">
-        <v>0.95837519911775504</v>
+        <v>0.95841195931871004</v>
       </c>
       <c r="H7">
-        <v>0.74425078298713498</v>
+        <v>0.74179694726337497</v>
       </c>
       <c r="I7">
-        <v>0.702831004069155</v>
+        <v>0.70222234731247202</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4140,22 +4140,22 @@
         <v>81610</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8">
-        <v>78215</v>
+        <v>78219</v>
       </c>
       <c r="G8">
-        <v>0.95839970591839196</v>
+        <v>0.95844871951966604</v>
       </c>
       <c r="H8">
-        <v>0.753879903507222</v>
+        <v>0.74384633342134998</v>
       </c>
       <c r="I8">
-        <v>0.70203623177096497</v>
+        <v>0.704127034848815</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4169,22 +4169,22 @@
         <v>81610</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9">
-        <v>78216</v>
+        <v>78253</v>
       </c>
       <c r="G9">
-        <v>0.95841195931871004</v>
+        <v>0.95886533513049799</v>
       </c>
       <c r="H9">
-        <v>0.74179694726337497</v>
+        <v>0.74891902906524099</v>
       </c>
       <c r="I9">
-        <v>0.70222234731247202</v>
+        <v>0.71141689315847201</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4198,22 +4198,22 @@
         <v>81610</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>78218</v>
+        <v>78253</v>
       </c>
       <c r="G10">
-        <v>0.95843646611934796</v>
+        <v>0.95886533513049799</v>
       </c>
       <c r="H10">
-        <v>0.75157039146682603</v>
+        <v>0.74891902906524099</v>
       </c>
       <c r="I10">
-        <v>0.70175539040706103</v>
+        <v>0.71141689315847201</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4227,22 +4227,22 @@
         <v>81610</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>78218</v>
+        <v>78255</v>
       </c>
       <c r="G11">
-        <v>0.95843646611934796</v>
+        <v>0.95888984193113502</v>
       </c>
       <c r="H11">
-        <v>0.75157039146682603</v>
+        <v>0.73141031437528503</v>
       </c>
       <c r="I11">
-        <v>0.70175539040706103</v>
+        <v>0.69419231782356805</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4256,22 +4256,22 @@
         <v>81610</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12">
-        <v>78219</v>
+        <v>78255</v>
       </c>
       <c r="G12">
-        <v>0.95844871951966604</v>
+        <v>0.95888984193113502</v>
       </c>
       <c r="H12">
-        <v>0.74384633342134998</v>
+        <v>0.73141031437528503</v>
       </c>
       <c r="I12">
-        <v>0.704127034848815</v>
+        <v>0.69419231782356805</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4285,22 +4285,22 @@
         <v>81610</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13">
-        <v>78231</v>
+        <v>78263</v>
       </c>
       <c r="G13">
-        <v>0.95859576032348903</v>
+        <v>0.95898786913368395</v>
       </c>
       <c r="H13">
-        <v>0.75498257026192495</v>
+        <v>0.75715281987731498</v>
       </c>
       <c r="I13">
-        <v>0.70902612615352301</v>
+        <v>0.70520496412903599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4314,22 +4314,25 @@
         <v>81610</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14">
-        <v>78243</v>
+        <v>78267</v>
       </c>
       <c r="G14">
-        <v>0.95874280112731203</v>
+        <v>0.95903688273495802</v>
       </c>
       <c r="H14">
-        <v>0.75881030731085397</v>
+        <v>0.74375957977748997</v>
       </c>
       <c r="I14">
-        <v>0.70516746576617095</v>
+        <v>0.69514647702184096</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4343,25 +4346,22 @@
         <v>81610</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>78267</v>
+        <v>78282</v>
       </c>
       <c r="G15">
-        <v>0.95903688273495802</v>
+        <v>0.95922068373973701</v>
       </c>
       <c r="H15">
-        <v>0.74375957977748997</v>
+        <v>0.74738665803800197</v>
       </c>
       <c r="I15">
-        <v>0.69514647702184096</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
+        <v>0.70968969951766703</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4500,22 +4500,22 @@
         <v>81610</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20">
-        <v>78392</v>
+        <v>78397</v>
       </c>
       <c r="G20">
-        <v>0.96056855777478201</v>
+        <v>0.96062982477637504</v>
       </c>
       <c r="H20">
-        <v>0.74437071898890605</v>
+        <v>0.74685092782470097</v>
       </c>
       <c r="I20">
-        <v>0.70322921722665199</v>
+        <v>0.70422704553342796</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -4532,22 +4532,22 @@
         <v>81610</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21">
-        <v>78392</v>
+        <v>78406</v>
       </c>
       <c r="G21">
-        <v>0.96056855777478201</v>
+        <v>0.96074010537924204</v>
       </c>
       <c r="H21">
-        <v>0.74437071898890605</v>
+        <v>0.74396916728047702</v>
       </c>
       <c r="I21">
-        <v>0.70322921722665199</v>
+        <v>0.70454304524240097</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -4564,22 +4564,22 @@
         <v>81610</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22">
-        <v>78397</v>
+        <v>78407</v>
       </c>
       <c r="G22">
-        <v>0.96062982477637504</v>
+        <v>0.960752358779561</v>
       </c>
       <c r="H22">
-        <v>0.74685092782470097</v>
+        <v>0.74192250033046003</v>
       </c>
       <c r="I22">
-        <v>0.70422704553342796</v>
+        <v>0.70264725632410197</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -4596,22 +4596,22 @@
         <v>81610</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23">
-        <v>78406</v>
+        <v>78410</v>
       </c>
       <c r="G23">
-        <v>0.96074010537924204</v>
+        <v>0.960789118980517</v>
       </c>
       <c r="H23">
-        <v>0.74396916728047702</v>
+        <v>0.75400862462797003</v>
       </c>
       <c r="I23">
-        <v>0.70454304524240097</v>
+        <v>0.70247003940064001</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -4628,22 +4628,22 @@
         <v>81610</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24">
-        <v>78407</v>
+        <v>78440</v>
       </c>
       <c r="G24">
-        <v>0.960752358779561</v>
+        <v>0.96115672099007399</v>
       </c>
       <c r="H24">
-        <v>0.74192250033046003</v>
+        <v>0.74904470121354705</v>
       </c>
       <c r="I24">
-        <v>0.70264725632410197</v>
+        <v>0.71183290355205797</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -4660,22 +4660,22 @@
         <v>81610</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25">
-        <v>78407</v>
+        <v>78440</v>
       </c>
       <c r="G25">
-        <v>0.960752358779561</v>
+        <v>0.96115672099007399</v>
       </c>
       <c r="H25">
-        <v>0.75169571652876199</v>
+        <v>0.74904470121354705</v>
       </c>
       <c r="I25">
-        <v>0.70217585010966899</v>
+        <v>0.71183290355205797</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -4692,22 +4692,22 @@
         <v>81610</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26">
-        <v>78407</v>
+        <v>78445</v>
       </c>
       <c r="G26">
-        <v>0.960752358779561</v>
+        <v>0.96121798799166702</v>
       </c>
       <c r="H26">
-        <v>0.75169571652876199</v>
+        <v>0.73153713135615295</v>
       </c>
       <c r="I26">
-        <v>0.70217585010966899</v>
+        <v>0.69461500218068795</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -4724,22 +4724,22 @@
         <v>81610</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27">
-        <v>78410</v>
+        <v>78445</v>
       </c>
       <c r="G27">
-        <v>0.960789118980517</v>
+        <v>0.96121798799166702</v>
       </c>
       <c r="H27">
-        <v>0.75400862462797003</v>
+        <v>0.73153713135615295</v>
       </c>
       <c r="I27">
-        <v>0.70247003940064001</v>
+        <v>0.69461500218068795</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -4756,22 +4756,22 @@
         <v>81610</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28">
-        <v>78415</v>
+        <v>78455</v>
       </c>
       <c r="G28">
-        <v>0.96085038598211003</v>
+        <v>0.96134052199485298</v>
       </c>
       <c r="H28">
-        <v>0.75510471537665302</v>
+        <v>0.75727971024720397</v>
       </c>
       <c r="I28">
-        <v>0.70943546258357604</v>
+        <v>0.70563209779517799</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -4788,22 +4788,22 @@
         <v>81610</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29">
-        <v>78434</v>
+        <v>78469</v>
       </c>
       <c r="G29">
-        <v>0.96108320058816299</v>
+        <v>0.96151206959931301</v>
       </c>
       <c r="H29">
-        <v>0.75893613046888597</v>
+        <v>0.74751136077395797</v>
       </c>
       <c r="I29">
-        <v>0.70559237477780201</v>
+        <v>0.71010570991125299</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
